--- a/criterios_por_regiao.xlsx
+++ b/criterios_por_regiao.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.528888888888889</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21777777777778</v>
+        <v>31.10111111111111</v>
       </c>
       <c r="D2" t="n">
-        <v>9.026666666666666</v>
+        <v>5.977777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>84.80666666666667</v>
+        <v>84.48222222222222</v>
       </c>
       <c r="F2" t="n">
-        <v>50.07333333333334</v>
+        <v>50.21555555555555</v>
       </c>
       <c r="G2" t="n">
-        <v>98.02666666666667</v>
+        <v>97.5911111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>91.88555555555556</v>
+        <v>91.98444444444445</v>
       </c>
       <c r="I2" t="n">
-        <v>58.42888888888889</v>
+        <v>57.41333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>43.18666666666667</v>
+        <v>41.22111111111111</v>
       </c>
       <c r="K2" t="n">
-        <v>21.66111111111111</v>
+        <v>19.66888888888889</v>
       </c>
       <c r="L2" t="n">
-        <v>8.466666666666669</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="M2" t="n">
-        <v>49.06444444444445</v>
+        <v>48.74333333333334</v>
       </c>
       <c r="N2" t="n">
-        <v>17.08444444444444</v>
+        <v>15.10666666666667</v>
       </c>
       <c r="O2" t="n">
-        <v>57.3811111111111</v>
+        <v>56.51888888888889</v>
       </c>
       <c r="P2" t="n">
-        <v>96.5911111111111</v>
+        <v>96.52777777777777</v>
       </c>
     </row>
     <row r="3">
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.122857142857143</v>
+        <v>0.08</v>
       </c>
       <c r="C3" t="n">
-        <v>36.12</v>
+        <v>35.30714285714286</v>
       </c>
       <c r="D3" t="n">
-        <v>10.49285714285714</v>
+        <v>6.351428571428572</v>
       </c>
       <c r="E3" t="n">
-        <v>84.26999999999998</v>
+        <v>83.30285714285715</v>
       </c>
       <c r="F3" t="n">
-        <v>58.58428571428571</v>
+        <v>58.17000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>96.6742857142857</v>
+        <v>95.34428571428573</v>
       </c>
       <c r="H3" t="n">
-        <v>88.08285714285715</v>
+        <v>88.96571428571428</v>
       </c>
       <c r="I3" t="n">
-        <v>55.74285714285715</v>
+        <v>52.73285714285714</v>
       </c>
       <c r="J3" t="n">
-        <v>48.57714285714286</v>
+        <v>45.15857142857143</v>
       </c>
       <c r="K3" t="n">
-        <v>20.37714285714285</v>
+        <v>18.90142857142857</v>
       </c>
       <c r="L3" t="n">
-        <v>10.51714285714286</v>
+        <v>6.300000000000002</v>
       </c>
       <c r="M3" t="n">
-        <v>59.25714285714285</v>
+        <v>57.08714285714285</v>
       </c>
       <c r="N3" t="n">
-        <v>16.79714285714286</v>
+        <v>13.50571428571429</v>
       </c>
       <c r="O3" t="n">
-        <v>59.41285714285714</v>
+        <v>56.52142857142857</v>
       </c>
       <c r="P3" t="n">
-        <v>96.9157142857143</v>
+        <v>96.90428571428572</v>
       </c>
     </row>
     <row r="4">
@@ -621,49 +621,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.505</v>
+        <v>0.5675</v>
       </c>
       <c r="C4" t="n">
-        <v>43.035</v>
+        <v>42.66</v>
       </c>
       <c r="D4" t="n">
-        <v>10.755</v>
+        <v>8.43</v>
       </c>
       <c r="E4" t="n">
-        <v>87.23499999999999</v>
+        <v>86.91249999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>55.0125</v>
+        <v>54.8</v>
       </c>
       <c r="G4" t="n">
-        <v>96.3775</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>91.30250000000001</v>
+        <v>91.55000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>55.86750000000001</v>
+        <v>53.785</v>
       </c>
       <c r="J4" t="n">
-        <v>44.4225</v>
+        <v>42.8725</v>
       </c>
       <c r="K4" t="n">
-        <v>25.83</v>
+        <v>23.76</v>
       </c>
       <c r="L4" t="n">
-        <v>13.47</v>
+        <v>10.9925</v>
       </c>
       <c r="M4" t="n">
-        <v>58.3725</v>
+        <v>57.63</v>
       </c>
       <c r="N4" t="n">
-        <v>19.2875</v>
+        <v>17.6875</v>
       </c>
       <c r="O4" t="n">
-        <v>56.6525</v>
+        <v>54.03250000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>97.65000000000001</v>
+        <v>97.77249999999999</v>
       </c>
     </row>
     <row r="5">
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.15</v>
+        <v>0.2625</v>
       </c>
       <c r="C5" t="n">
-        <v>41.5525</v>
+        <v>41.145</v>
       </c>
       <c r="D5" t="n">
-        <v>8.3725</v>
+        <v>4.8425</v>
       </c>
       <c r="E5" t="n">
-        <v>80.375</v>
+        <v>80.205</v>
       </c>
       <c r="F5" t="n">
-        <v>47.215</v>
+        <v>46.8475</v>
       </c>
       <c r="G5" t="n">
-        <v>98.0975</v>
+        <v>97.3725</v>
       </c>
       <c r="H5" t="n">
-        <v>86.23</v>
+        <v>86.37</v>
       </c>
       <c r="I5" t="n">
-        <v>60.175</v>
+        <v>59.415</v>
       </c>
       <c r="J5" t="n">
-        <v>38.1975</v>
+        <v>35.5925</v>
       </c>
       <c r="K5" t="n">
-        <v>16.14</v>
+        <v>14.09</v>
       </c>
       <c r="L5" t="n">
-        <v>8.970000000000001</v>
+        <v>5.095</v>
       </c>
       <c r="M5" t="n">
-        <v>55.16</v>
+        <v>54.8625</v>
       </c>
       <c r="N5" t="n">
-        <v>12.435</v>
+        <v>10.7375</v>
       </c>
       <c r="O5" t="n">
-        <v>60.185</v>
+        <v>59.39</v>
       </c>
       <c r="P5" t="n">
-        <v>97.30250000000001</v>
+        <v>97.345</v>
       </c>
     </row>
     <row r="6">
@@ -725,49 +725,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.096666666666667</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>42.8</v>
+        <v>43.09</v>
       </c>
       <c r="D6" t="n">
-        <v>13.39333333333333</v>
+        <v>12.59333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>83.49333333333334</v>
+        <v>86.85666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>52.13333333333333</v>
+        <v>53.40666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>94.50666666666666</v>
+        <v>95.46666666666665</v>
       </c>
       <c r="H6" t="n">
-        <v>90.08333333333333</v>
+        <v>88.25999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>56.17666666666667</v>
+        <v>57.97666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>42.91999999999999</v>
+        <v>42.83666666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>16.96666666666667</v>
+        <v>15.79333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>5.233333333333333</v>
+        <v>3.9</v>
       </c>
       <c r="M6" t="n">
-        <v>51.04333333333333</v>
+        <v>52.62</v>
       </c>
       <c r="N6" t="n">
-        <v>11.96666666666667</v>
+        <v>12.63666666666667</v>
       </c>
       <c r="O6" t="n">
-        <v>56.20666666666667</v>
+        <v>57.27</v>
       </c>
       <c r="P6" t="n">
-        <v>98.56333333333333</v>
+        <v>98.78666666666668</v>
       </c>
     </row>
   </sheetData>

--- a/criterios_por_regiao.xlsx
+++ b/criterios_por_regiao.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/criterios_por_regiao.xlsx
+++ b/criterios_por_regiao.xlsx
@@ -517,49 +517,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1288888888888889</v>
+        <v>0.13</v>
       </c>
       <c r="C2" t="n">
-        <v>31.10111111111111</v>
+        <v>31.1</v>
       </c>
       <c r="D2" t="n">
-        <v>5.977777777777778</v>
+        <v>5.98</v>
       </c>
       <c r="E2" t="n">
-        <v>84.48222222222222</v>
+        <v>84.48</v>
       </c>
       <c r="F2" t="n">
-        <v>50.21555555555555</v>
+        <v>50.22</v>
       </c>
       <c r="G2" t="n">
-        <v>97.5911111111111</v>
+        <v>97.59</v>
       </c>
       <c r="H2" t="n">
-        <v>91.98444444444445</v>
+        <v>91.98</v>
       </c>
       <c r="I2" t="n">
-        <v>57.41333333333333</v>
+        <v>57.41</v>
       </c>
       <c r="J2" t="n">
-        <v>41.22111111111111</v>
+        <v>41.22</v>
       </c>
       <c r="K2" t="n">
-        <v>19.66888888888889</v>
+        <v>19.67</v>
       </c>
       <c r="L2" t="n">
-        <v>5.138888888888889</v>
+        <v>5.14</v>
       </c>
       <c r="M2" t="n">
-        <v>48.74333333333334</v>
+        <v>48.74</v>
       </c>
       <c r="N2" t="n">
-        <v>15.10666666666667</v>
+        <v>15.11</v>
       </c>
       <c r="O2" t="n">
-        <v>56.51888888888889</v>
+        <v>56.52</v>
       </c>
       <c r="P2" t="n">
-        <v>96.52777777777777</v>
+        <v>96.53</v>
       </c>
     </row>
     <row r="3">
@@ -572,46 +572,46 @@
         <v>0.08</v>
       </c>
       <c r="C3" t="n">
-        <v>35.30714285714286</v>
+        <v>35.31</v>
       </c>
       <c r="D3" t="n">
-        <v>6.351428571428572</v>
+        <v>6.35</v>
       </c>
       <c r="E3" t="n">
-        <v>83.30285714285715</v>
+        <v>83.3</v>
       </c>
       <c r="F3" t="n">
-        <v>58.17000000000001</v>
+        <v>58.17</v>
       </c>
       <c r="G3" t="n">
-        <v>95.34428571428573</v>
+        <v>95.34</v>
       </c>
       <c r="H3" t="n">
-        <v>88.96571428571428</v>
+        <v>88.97</v>
       </c>
       <c r="I3" t="n">
-        <v>52.73285714285714</v>
+        <v>52.73</v>
       </c>
       <c r="J3" t="n">
-        <v>45.15857142857143</v>
+        <v>45.16</v>
       </c>
       <c r="K3" t="n">
-        <v>18.90142857142857</v>
+        <v>18.9</v>
       </c>
       <c r="L3" t="n">
-        <v>6.300000000000002</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>57.08714285714285</v>
+        <v>57.09</v>
       </c>
       <c r="N3" t="n">
-        <v>13.50571428571429</v>
+        <v>13.51</v>
       </c>
       <c r="O3" t="n">
-        <v>56.52142857142857</v>
+        <v>56.52</v>
       </c>
       <c r="P3" t="n">
-        <v>96.90428571428572</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5675</v>
+        <v>0.57</v>
       </c>
       <c r="C4" t="n">
         <v>42.66</v>
@@ -630,7 +630,7 @@
         <v>8.43</v>
       </c>
       <c r="E4" t="n">
-        <v>86.91249999999999</v>
+        <v>86.91</v>
       </c>
       <c r="F4" t="n">
         <v>54.8</v>
@@ -639,31 +639,31 @@
         <v>94.06999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>91.55000000000001</v>
+        <v>91.55</v>
       </c>
       <c r="I4" t="n">
-        <v>53.785</v>
+        <v>53.78</v>
       </c>
       <c r="J4" t="n">
-        <v>42.8725</v>
+        <v>42.87</v>
       </c>
       <c r="K4" t="n">
         <v>23.76</v>
       </c>
       <c r="L4" t="n">
-        <v>10.9925</v>
+        <v>10.99</v>
       </c>
       <c r="M4" t="n">
         <v>57.63</v>
       </c>
       <c r="N4" t="n">
-        <v>17.6875</v>
+        <v>17.69</v>
       </c>
       <c r="O4" t="n">
-        <v>54.03250000000001</v>
+        <v>54.03</v>
       </c>
       <c r="P4" t="n">
-        <v>97.77249999999999</v>
+        <v>97.77</v>
       </c>
     </row>
     <row r="5">
@@ -673,49 +673,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2625</v>
+        <v>0.26</v>
       </c>
       <c r="C5" t="n">
-        <v>41.145</v>
+        <v>41.14</v>
       </c>
       <c r="D5" t="n">
-        <v>4.8425</v>
+        <v>4.84</v>
       </c>
       <c r="E5" t="n">
-        <v>80.205</v>
+        <v>80.2</v>
       </c>
       <c r="F5" t="n">
-        <v>46.8475</v>
+        <v>46.85</v>
       </c>
       <c r="G5" t="n">
-        <v>97.3725</v>
+        <v>97.37</v>
       </c>
       <c r="H5" t="n">
         <v>86.37</v>
       </c>
       <c r="I5" t="n">
-        <v>59.415</v>
+        <v>59.42</v>
       </c>
       <c r="J5" t="n">
-        <v>35.5925</v>
+        <v>35.59</v>
       </c>
       <c r="K5" t="n">
         <v>14.09</v>
       </c>
       <c r="L5" t="n">
-        <v>5.095</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="n">
-        <v>54.8625</v>
+        <v>54.86</v>
       </c>
       <c r="N5" t="n">
-        <v>10.7375</v>
+        <v>10.74</v>
       </c>
       <c r="O5" t="n">
         <v>59.39</v>
       </c>
       <c r="P5" t="n">
-        <v>97.345</v>
+        <v>97.34</v>
       </c>
     </row>
     <row r="6">
@@ -725,34 +725,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1233333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="C6" t="n">
         <v>43.09</v>
       </c>
       <c r="D6" t="n">
-        <v>12.59333333333333</v>
+        <v>12.59</v>
       </c>
       <c r="E6" t="n">
-        <v>86.85666666666667</v>
+        <v>86.86</v>
       </c>
       <c r="F6" t="n">
-        <v>53.40666666666667</v>
+        <v>53.41</v>
       </c>
       <c r="G6" t="n">
-        <v>95.46666666666665</v>
+        <v>95.47</v>
       </c>
       <c r="H6" t="n">
-        <v>88.25999999999999</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>57.97666666666667</v>
+        <v>57.98</v>
       </c>
       <c r="J6" t="n">
-        <v>42.83666666666667</v>
+        <v>42.84</v>
       </c>
       <c r="K6" t="n">
-        <v>15.79333333333333</v>
+        <v>15.79</v>
       </c>
       <c r="L6" t="n">
         <v>3.9</v>
@@ -761,13 +761,13 @@
         <v>52.62</v>
       </c>
       <c r="N6" t="n">
-        <v>12.63666666666667</v>
+        <v>12.64</v>
       </c>
       <c r="O6" t="n">
         <v>57.27</v>
       </c>
       <c r="P6" t="n">
-        <v>98.78666666666668</v>
+        <v>98.79000000000001</v>
       </c>
     </row>
   </sheetData>
